--- a/data/mastersuites/MasterSuite.xlsx
+++ b/data/mastersuites/MasterSuite.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F74AE6-A92A-4A8E-8405-6073668E23DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>RunMode</t>
   </si>
@@ -36,13 +42,22 @@
     <t>exampletestsuite_amazonsuite</t>
   </si>
   <si>
+    <t>exampleapptestsuite_contactmanager</t>
+  </si>
+  <si>
+    <t>exampletestsuite_dlsuite</t>
+  </si>
+  <si>
     <t>exampletestsuite_disneysuite</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +93,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,7 +137,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -388,20 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -412,26 +440,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
